--- a/data/pca/factorExposure/factorExposure_2013-04-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-23.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1.448476563228487e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001910289621697247</v>
+      </c>
+      <c r="C2">
+        <v>0.03259216112024261</v>
+      </c>
+      <c r="D2">
+        <v>-0.007078213721274606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001808928293772139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00602180159360461</v>
+      </c>
+      <c r="C4">
+        <v>0.08635126873460328</v>
+      </c>
+      <c r="D4">
+        <v>-0.07620719203939479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0009684058945074862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01317966972863131</v>
+      </c>
+      <c r="C6">
+        <v>0.108211028429298</v>
+      </c>
+      <c r="D6">
+        <v>-0.03414097280489626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002037686586459454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004559878753433629</v>
+      </c>
+      <c r="C7">
+        <v>0.05418311365002121</v>
+      </c>
+      <c r="D7">
+        <v>-0.03512886527397126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006434389584196116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005533015035938334</v>
+      </c>
+      <c r="C8">
+        <v>0.03706111941025746</v>
+      </c>
+      <c r="D8">
+        <v>-0.03784284267519415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003750905652323297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003989826435430761</v>
+      </c>
+      <c r="C9">
+        <v>0.06992300479104302</v>
+      </c>
+      <c r="D9">
+        <v>-0.07214210823357171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004708488925333951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005515893038353596</v>
+      </c>
+      <c r="C10">
+        <v>0.0697658162510203</v>
+      </c>
+      <c r="D10">
+        <v>0.2118787157215478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003411137161883873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005195886275068921</v>
+      </c>
+      <c r="C11">
+        <v>0.07853536764290069</v>
+      </c>
+      <c r="D11">
+        <v>-0.06470684676055255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-1.333068758476676e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003901471468992917</v>
+      </c>
+      <c r="C12">
+        <v>0.06349189503816148</v>
+      </c>
+      <c r="D12">
+        <v>-0.04797066783756551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003130461579636656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008258724086678618</v>
+      </c>
+      <c r="C13">
+        <v>0.06489355296493851</v>
+      </c>
+      <c r="D13">
+        <v>-0.06774873887515025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001536707286346707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001539593351827514</v>
+      </c>
+      <c r="C14">
+        <v>0.04647689190415983</v>
+      </c>
+      <c r="D14">
+        <v>-0.01261050744098983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0008390873788798756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005886676344457992</v>
+      </c>
+      <c r="C15">
+        <v>0.04114953388197149</v>
+      </c>
+      <c r="D15">
+        <v>-0.03256854487235038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001811388989893736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004825888271879111</v>
+      </c>
+      <c r="C16">
+        <v>0.06528081775160582</v>
+      </c>
+      <c r="D16">
+        <v>-0.04935801329253255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-6.676510312315824e-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008879577099605051</v>
+      </c>
+      <c r="C20">
+        <v>0.06542259803231348</v>
+      </c>
+      <c r="D20">
+        <v>-0.05490758804828273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005715397418949009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009829344448143434</v>
+      </c>
+      <c r="C21">
+        <v>0.02241127488819259</v>
+      </c>
+      <c r="D21">
+        <v>-0.03572488267565649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01695126697333322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007022089591514678</v>
+      </c>
+      <c r="C22">
+        <v>0.09249340164471363</v>
+      </c>
+      <c r="D22">
+        <v>-0.1061140344474942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01727347842194398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006837567717994779</v>
+      </c>
+      <c r="C23">
+        <v>0.09331261445652676</v>
+      </c>
+      <c r="D23">
+        <v>-0.1065048915318731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002201262415104394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004850661155236601</v>
+      </c>
+      <c r="C24">
+        <v>0.07337793370985408</v>
+      </c>
+      <c r="D24">
+        <v>-0.06148078039065796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004178339741879144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002635522187823086</v>
+      </c>
+      <c r="C25">
+        <v>0.07742283076698182</v>
+      </c>
+      <c r="D25">
+        <v>-0.0659901881453708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006332613461868212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003605160813270552</v>
+      </c>
+      <c r="C26">
+        <v>0.04222819376961358</v>
+      </c>
+      <c r="D26">
+        <v>-0.02716259458820056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004189945028247167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006414831891539747</v>
+      </c>
+      <c r="C28">
+        <v>0.1185105397632971</v>
+      </c>
+      <c r="D28">
+        <v>0.3104584925224967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001471230250816081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003266058212760557</v>
+      </c>
+      <c r="C29">
+        <v>0.04981147005183424</v>
+      </c>
+      <c r="D29">
+        <v>-0.01124303213342072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004121797811795794</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008686462618233968</v>
+      </c>
+      <c r="C30">
+        <v>0.1393898979512089</v>
+      </c>
+      <c r="D30">
+        <v>-0.1063921818445964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001220858801228815</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006075682486314773</v>
+      </c>
+      <c r="C31">
+        <v>0.04559083051903546</v>
+      </c>
+      <c r="D31">
+        <v>-0.03134625296999788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009744984290897111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003906423164389104</v>
+      </c>
+      <c r="C32">
+        <v>0.03974223464965242</v>
+      </c>
+      <c r="D32">
+        <v>-0.01823448992957818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003278191166758578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007776020899505051</v>
+      </c>
+      <c r="C33">
+        <v>0.08397035977941848</v>
+      </c>
+      <c r="D33">
+        <v>-0.07614591923644022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004776610735040241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003722871540845507</v>
+      </c>
+      <c r="C34">
+        <v>0.05770070109242755</v>
+      </c>
+      <c r="D34">
+        <v>-0.0475955920365501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002769962786205902</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004698265714547264</v>
+      </c>
+      <c r="C35">
+        <v>0.03879570275923166</v>
+      </c>
+      <c r="D35">
+        <v>-0.01381818709301295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004058817819262086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001377962761655413</v>
+      </c>
+      <c r="C36">
+        <v>0.02424801669093802</v>
+      </c>
+      <c r="D36">
+        <v>-0.02301091548296642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001940974715752301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009388801129205964</v>
+      </c>
+      <c r="C38">
+        <v>0.03446209343138778</v>
+      </c>
+      <c r="D38">
+        <v>-0.01974529252847519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01337300367056913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001049935419074762</v>
+      </c>
+      <c r="C39">
+        <v>0.116006037589558</v>
+      </c>
+      <c r="D39">
+        <v>-0.08344407391416304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009891164074655241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001925404700766749</v>
+      </c>
+      <c r="C40">
+        <v>0.08545181343958862</v>
+      </c>
+      <c r="D40">
+        <v>-0.02036323572319198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0003641942668222947</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007300505726540121</v>
+      </c>
+      <c r="C41">
+        <v>0.03901519770797425</v>
+      </c>
+      <c r="D41">
+        <v>-0.03514617072460113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003156072115189143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003490191591009813</v>
+      </c>
+      <c r="C43">
+        <v>0.05090949159488841</v>
+      </c>
+      <c r="D43">
+        <v>-0.02544134609404223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00316122366563747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003305348868498621</v>
+      </c>
+      <c r="C44">
+        <v>0.1108839673378053</v>
+      </c>
+      <c r="D44">
+        <v>-0.08292957788582701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001744832287834669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.0022897466035505</v>
+      </c>
+      <c r="C46">
+        <v>0.03435331598819519</v>
+      </c>
+      <c r="D46">
+        <v>-0.03095650277803726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.00098168286151918</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002617792202160445</v>
+      </c>
+      <c r="C47">
+        <v>0.03861217234747233</v>
+      </c>
+      <c r="D47">
+        <v>-0.02298765285581934</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003205626139493217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006311791609568337</v>
+      </c>
+      <c r="C48">
+        <v>0.02833881079966321</v>
+      </c>
+      <c r="D48">
+        <v>-0.03419037507378872</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01439413235340874</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01427129628006235</v>
+      </c>
+      <c r="C49">
+        <v>0.1756704821684306</v>
+      </c>
+      <c r="D49">
+        <v>-0.02148875968935289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001390608409713383</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003477156153248626</v>
+      </c>
+      <c r="C50">
+        <v>0.04286431621212287</v>
+      </c>
+      <c r="D50">
+        <v>-0.03580809669073517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001272197465792613</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004255511978446658</v>
+      </c>
+      <c r="C51">
+        <v>0.02154218172024965</v>
+      </c>
+      <c r="D51">
+        <v>-0.03172512542855085</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0003012082833179398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01993701389847079</v>
+      </c>
+      <c r="C53">
+        <v>0.1663968437690233</v>
+      </c>
+      <c r="D53">
+        <v>-0.04477090188836479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0008046152353325429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008588381832471044</v>
+      </c>
+      <c r="C54">
+        <v>0.05545246451646197</v>
+      </c>
+      <c r="D54">
+        <v>-0.0424213221777183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004009091237301849</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009028148841207799</v>
+      </c>
+      <c r="C55">
+        <v>0.1065850002274232</v>
+      </c>
+      <c r="D55">
+        <v>-0.05156801626084757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002998459665400981</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01945467655571881</v>
+      </c>
+      <c r="C56">
+        <v>0.1740886011464026</v>
+      </c>
+      <c r="D56">
+        <v>-0.04253913782315705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007877701797548856</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01917827711344479</v>
+      </c>
+      <c r="C58">
+        <v>0.1050997814765426</v>
+      </c>
+      <c r="D58">
+        <v>-0.06900343226916822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006622132970223256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009375879548072483</v>
+      </c>
+      <c r="C59">
+        <v>0.1673541725437592</v>
+      </c>
+      <c r="D59">
+        <v>0.2891103636856271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004420175312394216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02319805651228404</v>
+      </c>
+      <c r="C60">
+        <v>0.2227782037312876</v>
+      </c>
+      <c r="D60">
+        <v>-0.02651669431181095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01501548448022399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002146584009107925</v>
+      </c>
+      <c r="C61">
+        <v>0.0945448380397228</v>
+      </c>
+      <c r="D61">
+        <v>-0.06161820182259602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1707210148628177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1436401051690828</v>
+      </c>
+      <c r="C62">
+        <v>0.08230991212810763</v>
+      </c>
+      <c r="D62">
+        <v>-0.05160032997389245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.00155967844796144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006332265573215594</v>
+      </c>
+      <c r="C63">
+        <v>0.05985013876355179</v>
+      </c>
+      <c r="D63">
+        <v>-0.02438463276590973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005878740603510843</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01470553800185543</v>
+      </c>
+      <c r="C64">
+        <v>0.103510858845096</v>
+      </c>
+      <c r="D64">
+        <v>-0.06250207010802651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.00139254685493844</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0170084225212</v>
+      </c>
+      <c r="C65">
+        <v>0.1162452957302175</v>
+      </c>
+      <c r="D65">
+        <v>-0.02245225076915396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.00852910432046554</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01222146436838974</v>
+      </c>
+      <c r="C66">
+        <v>0.1564111299883884</v>
+      </c>
+      <c r="D66">
+        <v>-0.1213951173131226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003375239403196586</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01544564023481463</v>
+      </c>
+      <c r="C67">
+        <v>0.06501310413640884</v>
+      </c>
+      <c r="D67">
+        <v>-0.02969525372328175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006359942324256667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008841254962910143</v>
+      </c>
+      <c r="C68">
+        <v>0.09952122266454561</v>
+      </c>
+      <c r="D68">
+        <v>0.2578280862494231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002981356661592451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005782591147747587</v>
+      </c>
+      <c r="C69">
+        <v>0.04899937569507571</v>
+      </c>
+      <c r="D69">
+        <v>-0.04206337049239155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001765560357286222</v>
+      </c>
+      <c r="C70">
+        <v>0.002024473401621137</v>
+      </c>
+      <c r="D70">
+        <v>-0.002218769090368813</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001295964762191683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005956379667896279</v>
+      </c>
+      <c r="C71">
+        <v>0.1047109715124244</v>
+      </c>
+      <c r="D71">
+        <v>0.2854745864689568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005615945698692042</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01523766749798479</v>
+      </c>
+      <c r="C72">
+        <v>0.1489648983909818</v>
+      </c>
+      <c r="D72">
+        <v>-0.02051470305173101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01176502962632996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02901218498348849</v>
+      </c>
+      <c r="C73">
+        <v>0.2807245415668663</v>
+      </c>
+      <c r="D73">
+        <v>-0.04454801354793311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004830862019432856</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001065392963917897</v>
+      </c>
+      <c r="C74">
+        <v>0.1036317119810214</v>
+      </c>
+      <c r="D74">
+        <v>-0.04444668060882941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004089869667309575</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01053441686804669</v>
+      </c>
+      <c r="C75">
+        <v>0.132229248545348</v>
+      </c>
+      <c r="D75">
+        <v>-0.02482320604295486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009575028346221705</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02097111231955905</v>
+      </c>
+      <c r="C76">
+        <v>0.1491611222977637</v>
+      </c>
+      <c r="D76">
+        <v>-0.06809977692050136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>9.312774445581862e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02388075777143035</v>
+      </c>
+      <c r="C77">
+        <v>0.1317880611269011</v>
+      </c>
+      <c r="D77">
+        <v>-0.06674447730850684</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001517661477468658</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01418192937742403</v>
+      </c>
+      <c r="C78">
+        <v>0.09357512622378925</v>
+      </c>
+      <c r="D78">
+        <v>-0.06994869616343505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02419303195599281</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03665770236270378</v>
+      </c>
+      <c r="C79">
+        <v>0.1573610074801308</v>
+      </c>
+      <c r="D79">
+        <v>-0.03059156599049729</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004836771301135511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01033772777222748</v>
+      </c>
+      <c r="C80">
+        <v>0.04132135384701661</v>
+      </c>
+      <c r="D80">
+        <v>-0.03218278986072332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0003991868454433076</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01438852253065003</v>
+      </c>
+      <c r="C81">
+        <v>0.1243660885272387</v>
+      </c>
+      <c r="D81">
+        <v>-0.05520063605721658</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005606762215384285</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01917097049840444</v>
+      </c>
+      <c r="C82">
+        <v>0.1430807024309322</v>
+      </c>
+      <c r="D82">
+        <v>-0.04451583477922252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008591961462676885</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009784256621566194</v>
+      </c>
+      <c r="C83">
+        <v>0.05485488669945034</v>
+      </c>
+      <c r="D83">
+        <v>-0.0500940065437704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01260926077450337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01152213218601655</v>
+      </c>
+      <c r="C84">
+        <v>0.03475011603479012</v>
+      </c>
+      <c r="D84">
+        <v>0.006649876002353085</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01556524975620476</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02773658657519705</v>
+      </c>
+      <c r="C85">
+        <v>0.1297568044042011</v>
+      </c>
+      <c r="D85">
+        <v>-0.04615765473044967</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001503591363580052</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00533041423905841</v>
+      </c>
+      <c r="C86">
+        <v>0.04840020633760792</v>
+      </c>
+      <c r="D86">
+        <v>-0.02163291452381743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005243846071490204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009956925053024035</v>
+      </c>
+      <c r="C87">
+        <v>0.1298242815447544</v>
+      </c>
+      <c r="D87">
+        <v>-0.07528112535863224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01305633725324939</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002940404685761677</v>
+      </c>
+      <c r="C88">
+        <v>0.06828608273527921</v>
+      </c>
+      <c r="D88">
+        <v>-0.01328800793498976</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.0152634458155512</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001121630623294787</v>
+      </c>
+      <c r="C89">
+        <v>0.1558981085309961</v>
+      </c>
+      <c r="D89">
+        <v>0.340194595343458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002778452568626748</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007380014060370219</v>
+      </c>
+      <c r="C90">
+        <v>0.1370544623983222</v>
+      </c>
+      <c r="D90">
+        <v>0.3245352974281097</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.00070802733754909</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0100928139873542</v>
+      </c>
+      <c r="C91">
+        <v>0.104857070420945</v>
+      </c>
+      <c r="D91">
+        <v>-0.0212429081746783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.00843970741182592</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0005136072393815959</v>
+      </c>
+      <c r="C92">
+        <v>0.1426650655030847</v>
+      </c>
+      <c r="D92">
+        <v>0.3313533069302979</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0007163093832349475</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005085752320311158</v>
+      </c>
+      <c r="C93">
+        <v>0.1161248444879364</v>
+      </c>
+      <c r="D93">
+        <v>0.3132090758458421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003228006120862961</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02202202999117856</v>
+      </c>
+      <c r="C94">
+        <v>0.1559933571725509</v>
+      </c>
+      <c r="D94">
+        <v>-0.03478351423080443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.005117478347509867</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01572803468112971</v>
+      </c>
+      <c r="C95">
+        <v>0.1246685867466077</v>
+      </c>
+      <c r="D95">
+        <v>-0.06377575321880037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001605674360975826</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03432126405729608</v>
+      </c>
+      <c r="C97">
+        <v>0.1837450246259727</v>
+      </c>
+      <c r="D97">
+        <v>-0.02956603078400816</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004149432715296952</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03613056145298481</v>
+      </c>
+      <c r="C98">
+        <v>0.2514886167765061</v>
+      </c>
+      <c r="D98">
+        <v>-0.0464829301368493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9833300563802231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828404492802483</v>
+      </c>
+      <c r="C99">
+        <v>-0.1099357366801419</v>
+      </c>
+      <c r="D99">
+        <v>0.02951482650751207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001429928205497393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003309537703987393</v>
+      </c>
+      <c r="C101">
+        <v>0.04984487585747201</v>
+      </c>
+      <c r="D101">
+        <v>-0.01164394652215343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
